--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Dye</t>
   </si>
@@ -36,9 +36,6 @@
     <t>21a</t>
   </si>
   <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -66,18 +63,6 @@
     <t>Rutin</t>
   </si>
   <si>
-    <t>T1-simp</t>
-  </si>
-  <si>
-    <t>T2-simp</t>
-  </si>
-  <si>
-    <t>T3-simp</t>
-  </si>
-  <si>
-    <t>T4-simp</t>
-  </si>
-  <si>
     <t>expPCE</t>
   </si>
   <si>
@@ -88,6 +73,18 @@
   </si>
   <si>
     <t>expFF</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,16 +459,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -547,7 +544,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>3.04E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,13 +561,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>3.04E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.71199999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="D7" s="4">
-        <v>6.28</v>
+        <v>7.07</v>
       </c>
       <c r="E7" s="4">
         <v>0.68</v>
@@ -571,16 +577,16 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>3.4599999999999999E-2</v>
+      <c r="B8" s="3">
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="C8" s="4">
-        <v>0.71799999999999997</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="D8" s="4">
-        <v>7.07</v>
-      </c>
-      <c r="E8" s="4">
+        <v>5.09</v>
+      </c>
+      <c r="E8">
         <v>0.68</v>
       </c>
     </row>
@@ -589,16 +595,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>2.4899999999999999E-2</v>
+        <v>3.4099999999999998E-2</v>
       </c>
       <c r="C9" s="4">
-        <v>0.71699999999999997</v>
+        <v>0.76</v>
       </c>
       <c r="D9" s="4">
-        <v>5.09</v>
-      </c>
-      <c r="E9">
-        <v>0.68</v>
+        <v>10.42</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,50 +612,50 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>3.4099999999999998E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="C10" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10.64</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.76</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10.42</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>3.7100000000000001E-2</v>
+      <c r="B11" s="6">
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="C11" s="4">
-        <v>0.85</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="D11" s="4">
-        <v>10.64</v>
+        <v>13.35</v>
       </c>
       <c r="E11" s="4">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>5.5300000000000002E-2</v>
+      <c r="B12" s="7">
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="C12" s="4">
-        <v>0.66900000000000004</v>
+        <v>0.628</v>
       </c>
       <c r="D12" s="4">
-        <v>13.35</v>
+        <v>8.09</v>
       </c>
       <c r="E12" s="4">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -657,16 +663,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="7">
-        <v>3.4599999999999999E-2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.628</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D13" s="4">
-        <v>8.09</v>
+        <v>5.48</v>
       </c>
       <c r="E13" s="4">
-        <v>0.68</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -674,100 +680,83 @@
         <v>13</v>
       </c>
       <c r="B14" s="7">
-        <v>2.1499999999999998E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>0.58199999999999996</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D14" s="4">
-        <v>5.48</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="E14" s="4">
-        <v>0.67400000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7">
-        <v>7.1000000000000004E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>0.54700000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="D15" s="4">
-        <v>1.8260000000000001</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E15" s="4">
-        <v>0.71299999999999997</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5.4000000000000003E-3</v>
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.1899999999999999E-2</v>
       </c>
       <c r="C16" s="4">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="D16" s="4">
-        <v>2.2599999999999998</v>
+        <v>3.64</v>
       </c>
       <c r="E16" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
-        <v>1.1899999999999999E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="D17" s="4">
-        <v>3.64</v>
+        <v>0.64</v>
       </c>
       <c r="E17" s="4">
-        <v>0.64500000000000002</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="8">
-        <v>2.2000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C18" s="4">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="D18" s="4">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="E18" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E19" s="4">
         <v>0.75</v>
       </c>
     </row>

--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Dye</t>
   </si>
@@ -85,6 +85,27 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>10c</t>
+  </si>
+  <si>
+    <t>10d</t>
+  </si>
+  <si>
+    <t>12b</t>
+  </si>
+  <si>
+    <t>19a</t>
+  </si>
+  <si>
+    <t>22a</t>
+  </si>
+  <si>
+    <t>Phenothiazine3</t>
+  </si>
+  <si>
+    <t>Phenothiazine4</t>
   </si>
 </sst>
 </file>
@@ -441,14 +462,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
@@ -660,104 +682,223 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7">
-        <v>2.1499999999999998E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="C13" s="4">
-        <v>0.58199999999999996</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="D13" s="4">
-        <v>5.48</v>
+        <v>5.76</v>
       </c>
       <c r="E13" s="4">
-        <v>0.67400000000000004</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>7.1000000000000004E-3</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="6">
+        <v>3.49E-2</v>
       </c>
       <c r="C14" s="4">
-        <v>0.54700000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="D14" s="4">
-        <v>1.8260000000000001</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="E14" s="4">
-        <v>0.71299999999999997</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>5.4000000000000003E-3</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="C15" s="4">
-        <v>0.47</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="D15" s="4">
-        <v>2.2599999999999998</v>
+        <v>5.48</v>
       </c>
       <c r="E15" s="4">
-        <v>0.50900000000000001</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1.1899999999999999E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>0.51</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D16" s="4">
-        <v>3.64</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>0.64500000000000002</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8">
-        <v>2.2000000000000001E-3</v>
+        <v>21</v>
+      </c>
+      <c r="B17" s="7">
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="D17" s="4">
-        <v>0.64</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E17" s="4">
-        <v>0.74</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.1899999999999999E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B20" s="8">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C20" s="4">
         <v>0.48</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D20" s="4">
         <v>0.66</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E20" s="4">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="8">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5.0499999999999996E-2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D22" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8">
+        <v>4.41E-2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D25" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Dye</t>
   </si>
@@ -106,6 +106,45 @@
   </si>
   <si>
     <t>Phenothiazine4</t>
+  </si>
+  <si>
+    <t>AKSq1</t>
+  </si>
+  <si>
+    <t>AKSq2</t>
+  </si>
+  <si>
+    <t>AKSq3</t>
+  </si>
+  <si>
+    <t>AKSq4</t>
+  </si>
+  <si>
+    <t>imidazole3</t>
+  </si>
+  <si>
+    <t>imidazole1</t>
+  </si>
+  <si>
+    <t>imidazole2</t>
+  </si>
+  <si>
+    <t>imidazole4</t>
+  </si>
+  <si>
+    <t>imidazole5</t>
+  </si>
+  <si>
+    <t>imidazole1-1</t>
+  </si>
+  <si>
+    <t>imidazole1-2</t>
+  </si>
+  <si>
+    <t>imidazole1-3</t>
+  </si>
+  <si>
+    <t>Beetroot</t>
   </si>
 </sst>
 </file>
@@ -462,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,6 +940,110 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5.0799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="8">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="8">
+        <v>6.7099999999999993E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5.1200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Dye</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Beetroot</t>
+  </si>
+  <si>
+    <t>MS-C</t>
+  </si>
+  <si>
+    <t>MS-M</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,6 +1050,22 @@
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2.7400000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Dye</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>MS-M</t>
+  </si>
+  <si>
+    <t>MS-F</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,6 +1069,14 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="8">
+        <v>4.0199999999999993E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dyes_experimental_dataset.xlsx
+++ b/dyes_experimental_dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Dye</t>
   </si>
@@ -64,15 +64,6 @@
   </si>
   <si>
     <t>expPCE</t>
-  </si>
-  <si>
-    <t>expVoc_V</t>
-  </si>
-  <si>
-    <t>expIsc_mAcm-2</t>
-  </si>
-  <si>
-    <t>expFF</t>
   </si>
   <si>
     <t>T4</t>
@@ -512,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,15 +522,6 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -548,15 +530,9 @@
       <c r="B2" s="3">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -565,15 +541,9 @@
       <c r="B3" s="3">
         <v>1.47E-2</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.66</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -582,15 +552,9 @@
       <c r="B4" s="3">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="D4" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -599,15 +563,9 @@
       <c r="B5" s="5">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.59</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.72</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -616,15 +574,9 @@
       <c r="B6" s="5">
         <v>3.04E-2</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6.28</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.68</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -633,15 +585,9 @@
       <c r="B7" s="5">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7.07</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.68</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -650,15 +596,8 @@
       <c r="B8" s="3">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5.09</v>
-      </c>
-      <c r="E8">
-        <v>0.68</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -667,15 +606,9 @@
       <c r="B9" s="3">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.76</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10.42</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.69</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -684,15 +617,9 @@
       <c r="B10" s="3">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10.64</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.76</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -701,15 +628,9 @@
       <c r="B11" s="6">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="D11" s="4">
-        <v>13.35</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.62</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -718,49 +639,31 @@
       <c r="B12" s="7">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.628</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.09</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.68</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5.76</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.71</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="6">
         <v>3.49E-2</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.68</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -769,15 +672,9 @@
       <c r="B15" s="7">
         <v>2.1499999999999998E-2</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="D15" s="4">
-        <v>5.48</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.67400000000000004</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -786,172 +683,112 @@
       <c r="B16" s="7">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.8260000000000001</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.71299999999999997</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.47</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.50900000000000001</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8">
         <v>1.1899999999999999E-2</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.64</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.64500000000000002</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="8">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.74</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" s="8">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>5.0499999999999996E-2</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.71</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>2.3099999999999999E-2</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.505</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.68</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="C24" s="4">
-        <v>0.48</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.63</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>4.41E-2</v>
       </c>
-      <c r="C25" s="4">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.7</v>
-      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8">
         <v>2.63E-2</v>
@@ -959,7 +796,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27" s="8">
         <v>2.4799999999999999E-2</v>
@@ -967,7 +804,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="8">
         <v>1.03E-2</v>
@@ -975,7 +812,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="8">
         <v>9.7999999999999997E-3</v>
@@ -983,7 +820,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8">
         <v>5.0799999999999998E-2</v>
@@ -991,7 +828,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" s="8">
         <v>3.3399999999999999E-2</v>
@@ -999,7 +836,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>5.2600000000000001E-2</v>
@@ -1007,7 +844,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="8">
         <v>6.7099999999999993E-2</v>
@@ -1015,7 +852,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>5.9999999999999995E-4</v>
@@ -1023,7 +860,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8">
         <v>1.21E-2</v>
@@ -1031,7 +868,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8">
         <v>3.3599999999999998E-2</v>
@@ -1039,7 +876,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8">
         <v>5.1200000000000002E-2</v>
@@ -1047,7 +884,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8">
         <v>1.3000000000000001E-2</v>
@@ -1055,7 +892,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8">
         <v>5.5300000000000002E-2</v>
@@ -1063,7 +900,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B40" s="8">
         <v>2.7400000000000001E-2</v>
@@ -1071,7 +908,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B41" s="8">
         <v>4.0199999999999993E-2</v>
